--- a/Data/Screeners/NH2022-01.xlsx
+++ b/Data/Screeners/NH2022-01.xlsx
@@ -11,6 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-01" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-04" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-05" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-06" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-07" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2986,4 +2988,1866 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B113"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SONY </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSEM </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LBAI </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOGZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSC </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LQDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VSTO </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GM </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MP </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OZK </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WPP </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TMST </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PLAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RUSHA </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> QCOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDLZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KW </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RJF </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWI </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MU </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHRW </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DEA </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ST </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICL </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEY </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMP </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SMCI </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FITB </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAB </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VOYA </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TTMI </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHK </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CE </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNDR </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NSIT </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUR </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBNY </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPW </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJM </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UNP </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERF </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FFIC </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BUSE </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ITW </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KMB </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAX </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNV </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTRS </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARW </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAS </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AAP </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABB </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSY </t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UFPI </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ED </t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STL </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HPQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CL </t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RY </t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NBHC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VCRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LBAI </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LQDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPSS </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VNOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HWC </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPF </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOKF </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BBW </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNFP </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTB </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERF </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHL </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WPP </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNV </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NWG </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STL </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHW </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FITB </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RUSHA </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBNY </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEY </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SU </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCN </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASB </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBCT </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CUBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OZK </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZION </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ISBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UCBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UMBF </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCF </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LKFN </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/NH2022-01.xlsx
+++ b/Data/Screeners/NH2022-01.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-05" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-06" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-07" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-08" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4850,4 +4851,920 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HGSH </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGML </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LBAI </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FBP </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BY </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STT </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NPO </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LQDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CUBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGBN </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFS </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTB </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CIO </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LKFN </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DOV </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPLA </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTRS </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ISBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BUSE </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RF </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEY </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TXT </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NWG </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TM </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DG </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LYG </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CUZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASB </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNFP </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCF </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBNY </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHW </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> POR </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RJF </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FITB </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRV </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RY </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KR </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CM </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPF </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRU </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HWC </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FNF </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANR </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBCT </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MET </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RUSHA </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SO </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJM </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZION </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LAUR </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHK </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/NH2022-01.xlsx
+++ b/Data/Screeners/NH2022-01.xlsx
@@ -14,6 +14,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-06" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-07" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-08" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-11" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-12" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-13" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-14" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -877,6 +881,2584 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VNOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BBW </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CQP </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPLA </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNFP </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFM </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABC </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHW </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFR </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PACW </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LYG </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTRS </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JNPR </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICL </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCS </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERF </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APA </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KR </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SU </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STT </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGBN </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WPP </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LQDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSK </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B94"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBT </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGML </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SACH </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VECO </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HLI </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNFP </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INFY </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MT </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRTS </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMR </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TM </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANDE </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFR </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FAF </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTB </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APA </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PACW </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CQP </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SU </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VNOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHW </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EWBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHK </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TD </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSSS </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BHF </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTRS </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LYG </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARC </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BG </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PECO </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICL </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STT </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGBD </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FITB </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MS </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACGL </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCB </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WES </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WPP </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASB </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERF </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQT </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RJF </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTAP </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NI </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CATY </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLNG </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSM </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NXST </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TM </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPMP </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOWN </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTB </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KLAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> F </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KR </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FHB </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EVA </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BTI </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHL </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTG </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNOB </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NWG </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNFP </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HES </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RFP </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCS </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PECO </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEY </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LYG </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FULT </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FAF </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LKFN </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NI </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANR </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGBN </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTRS </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEG </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FITB </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WES </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USB </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCB </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WPP </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNV </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFR </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLB </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RRD </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> L </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EWBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CM </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KIM </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FNF </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCE </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -5767,4 +8349,900 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SGML </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPLA </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFR </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTB </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFL </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHK </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AEL </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LKFN </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LQDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KMB </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCS </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NI </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFM </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARNA </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STT </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBCT </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KR </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HMST </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RF </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ICL </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNV </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PNFP </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NTRS </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FNB </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FHI </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEY </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANR </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SO </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPMP </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ISBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSXP </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZION </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GD </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EWBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGBN </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BHF </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SFBS </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NBHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASB </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCF </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJM </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PRU </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFS </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LYG </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FBP </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HWC </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UCBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> STL </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FULT </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRKL </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BG </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FITB </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FNF </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RY </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WRB </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Data/Screeners/NH2022-01.xlsx
+++ b/Data/Screeners/NH2022-01.xlsx
@@ -18,6 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-12" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-13" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-14" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-15" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3459,6 +3460,792 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CBZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NPO </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ONTO </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HEI </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPW </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCHW </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LYG </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOKF </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTB </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EQNR </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMAT </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BTI </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNOB </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ISBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KDP </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLB </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HESM </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FULT </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERF </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANR </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OVV </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KEY </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FITB </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> THRM </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RY </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NWG </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KO </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APA </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BHF </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BRK-B </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LKFN </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MGY </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GIS </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HWC </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DELL </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FNB </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UMBF </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RTX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/NH2022-01.xlsx
+++ b/Data/Screeners/NH2022-01.xlsx
@@ -19,6 +19,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-13" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-14" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-15" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-19" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-20" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-21" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -4246,6 +4249,1604 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B98"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HMHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPOP </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BTI </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ESTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GSK </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VNOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WNS </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTDR </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FNB </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNQ </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBNC </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RY </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BMO </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FULT </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SU </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVE </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGY </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ISBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GRIN </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CFG </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLB </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ERF </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FANG </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FE </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MTB </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BOKF </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WAFD </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FCX </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSFS </t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UCBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CMA </t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FITB </t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HWC </t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HBAN </t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RE </t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MGY </t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SBNY </t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ECPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACBI </t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TSN </t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VET </t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RF </t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HES </t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPC </t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BUSE </t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DTM </t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LPG </t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RDS-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HMST </t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HTBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PCG </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E </t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPLX </t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSB </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ARLP </t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HOPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TD </t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SNV </t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LKFN </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJM </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CGBD </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CM </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PDCE </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VLY </t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TU </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APA </t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCE </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CPG </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZGNX </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> GMVD </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FLO </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HWC </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BBL </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSY </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WPP </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KOS </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVI </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BANR </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLF </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BP </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDLZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TECK </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCE </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BBL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WTFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRV </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SEE </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CME </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BHLB </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDLZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CCK </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WLL </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PXD </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FE </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RE </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BDX </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRNT </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NGG </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/NH2022-01.xlsx
+++ b/Data/Screeners/NH2022-01.xlsx
@@ -22,6 +22,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-19" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-20" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-21" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-22" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5847,6 +5848,82 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDLZ </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IMTE </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PEP </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PG </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSY </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/Data/Screeners/NH2022-01.xlsx
+++ b/Data/Screeners/NH2022-01.xlsx
@@ -23,6 +23,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-20" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-21" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-22" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-25" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-26" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-261" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -5924,6 +5927,278 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BTI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NFH </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HOPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDEV </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLB </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRV </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NBHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PDCE </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NFH </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -6052,6 +6327,222 @@
       <c r="B12" t="inlineStr">
         <is>
           <t xml:space="preserve"> LAND </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HOPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSR </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDEV </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLB </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRV </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NBHC </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PDCE </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NFH </t>
         </is>
       </c>
     </row>

--- a/Data/Screeners/NH2022-01.xlsx
+++ b/Data/Screeners/NH2022-01.xlsx
@@ -26,6 +26,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-25" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-26" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-261" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-27" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-28" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-01-31" sheetId="23" state="visible" r:id="rId23"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -6551,6 +6554,964 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SRRA </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAFC </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TLK </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NFH </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DSKE </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BPT </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRTN </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HES </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MDRX </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLB </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CQP </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PDCE </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BCC </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HOPE </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VNOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDEV </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WSR </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PGR </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EGY </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MUR </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SUN </t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MPLX </t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RDS-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TWNK </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TDW </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TCDA </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HSBC </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MKC </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLB </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVX </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SLGN </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MATX </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> E </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HAL </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WHD </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRV </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EOG </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> OXY </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BKR </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MRO </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ABBV </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NEX </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> XOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COP </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> WMB </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DVN </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TRGP </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> RDS-A </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSL </t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VNOM </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLBK </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLR </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Tickers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NI </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AMPH </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DAC </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADM </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CNXC </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PBR </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VRTX </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CVS </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CLS </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ZIM </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
